--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hashizume\Desktop\240711投稿論文\scr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CA7AC4-F4A4-4334-AB3A-81606B090A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3D6443-BDC3-461F-ADF2-81ED7E09D2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CAAC8856-0913-44F8-A06A-3C70A13AD237}"/>
+    <workbookView xWindow="28845" yWindow="-11550" windowWidth="29040" windowHeight="15720" xr2:uid="{CAAC8856-0913-44F8-A06A-3C70A13AD237}"/>
   </bookViews>
   <sheets>
     <sheet name="culture_result" sheetId="8" r:id="rId1"/>
     <sheet name="cocktail_information" sheetId="9" r:id="rId2"/>
-    <sheet name="Concentration of frozen compoun" sheetId="10" r:id="rId3"/>
+    <sheet name="compound stock" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cocktail_information!$A$1:$D$58</definedName>
@@ -738,11 +738,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7F2A03-9B44-4EA8-8E4C-92A19AAA396F}">
   <dimension ref="A1:BL378"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.69921875" defaultRowHeight="10.199999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -74343,7 +74343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A6F107-F864-4E99-8CF0-FB30B856A984}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -75179,7 +75181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D18823-876C-4ABF-927F-9E621475FC3C}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
